--- a/TheBiggestLoser.xlsx
+++ b/TheBiggestLoser.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="TheBiggestLoser" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -65,11 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X + 3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B9:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/TheBiggestLoser.xlsx
+++ b/TheBiggestLoser.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Alex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>Team L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +100,7 @@
       <name val="MV Boli"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +137,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -175,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +581,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -614,8 +601,8 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>12</v>
+      <c r="B2" s="10">
+        <v>86.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -638,8 +625,8 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
+      <c r="B5" s="10">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -656,7 +643,7 @@
       </c>
       <c r="B7" s="11">
         <f>SUM(B2:B6)</f>
-        <v>199</v>
+        <v>350.90000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -682,8 +669,8 @@
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">

--- a/TheBiggestLoser.xlsx
+++ b/TheBiggestLoser.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Alex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>Team L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X + 3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,66 +574,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="9"/>
+    <col min="3" max="3" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>41891</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="10">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="10">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -645,57 +660,93 @@
         <f>SUM(B2:B6)</f>
         <v>350.90000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <f>SUM(C2:C6)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="12">
+        <f>C7-B7</f>
+        <v>-4.9000000000000341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B10" s="13">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="13">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B11" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="13">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B13" s="13">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="13">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B14" s="13">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C14" s="13">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
-        <f>SUM(B9:B13)</f>
-        <v>246.4</v>
+      <c r="B15" s="14">
+        <f>SUM(B10:B14)</f>
+        <v>249.8</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C10:C14)</f>
+        <v>249.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <f>C15-B15</f>
+        <v>-0.60000000000002274</v>
       </c>
     </row>
   </sheetData>
